--- a/uploads/data - Copy.xlsx
+++ b/uploads/data - Copy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Codigo</t>
   </si>
@@ -30,17 +30,27 @@
   </si>
   <si>
     <t xml:space="preserve"> 
-           6         </t>
-  </si>
-  <si>
-    <t>llasj</t>
-  </si>
-  <si>
-    <t>lkdajk</t>
+           9lsdkj</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-           ldalk         </t>
+           lkajds4         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+           asld9         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+           lkask6         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+           klsj2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+           9         </t>
   </si>
 </sst>
 </file>
@@ -411,25 +421,25 @@
       <c r="B2">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,72 +458,72 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
       <c r="D6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
